--- a/medex/medex/cache/user_data/AnonymousUser.xlsx
+++ b/medex/medex/cache/user_data/AnonymousUser.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Picklists" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Contacts picklists" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="SOSetup" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SODetails" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Shipment Order Packages" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Line Item List 1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Test Outcomes" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mapping Management" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Expected Results (Python)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picklists" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contacts picklists" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOSetup" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODetails" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shipment Order Packages" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Item List 1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Outcomes" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mapping Management" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Results (Python)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Test Outcomes'!$A$1:$G$260</definedName>
@@ -19187,7 +19187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -28113,7 +28113,7 @@
   <autoFilter ref="A1:G260"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -28136,7 +28136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet13">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -63715,10 +63715,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>